--- a/06 Machine Learning/Unsupervised/cluster_summary0.xlsx
+++ b/06 Machine Learning/Unsupervised/cluster_summary0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,20 +466,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>region</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.14942864583333</v>
+        <v>2.022</v>
       </c>
       <c r="D2" t="n">
-        <v>19.14967905277717</v>
+        <v>2.021476510067114</v>
       </c>
       <c r="E2" t="n">
-        <v>18.144</v>
+        <v>2.26530612244898</v>
       </c>
       <c r="F2" t="n">
-        <v>19.012</v>
+        <v>1.966019417475728</v>
       </c>
     </row>
     <row r="3">
@@ -488,20 +488,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>friends</t>
+          <t>tenure</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26.12045554095488</v>
+        <v>35.526</v>
       </c>
       <c r="D3" t="n">
-        <v>26.08567046450482</v>
+        <v>31.50335570469799</v>
       </c>
       <c r="E3" t="n">
-        <v>49</v>
+        <v>50.22448979591837</v>
       </c>
       <c r="F3" t="n">
-        <v>162</v>
+        <v>46.57766990291262</v>
       </c>
     </row>
     <row r="4">
@@ -510,20 +510,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>basketball</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2113447218572054</v>
+        <v>41.684</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2114373356704645</v>
+        <v>38.88053691275168</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>55.32653061224489</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>48.57766990291262</v>
       </c>
     </row>
     <row r="5">
@@ -532,20 +532,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>football</t>
+          <t>marital</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2288655278142795</v>
+        <v>0.495</v>
       </c>
       <c r="D5" t="n">
-        <v>0.228965819456617</v>
+        <v>0.4953020134228188</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.5097087378640777</v>
       </c>
     </row>
     <row r="6">
@@ -554,20 +554,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>soccer</t>
+          <t>address</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1508979413053</v>
+        <v>11.551</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1509640666082384</v>
+        <v>9.916778523489933</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>18.16326530612245</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>15.88834951456311</v>
       </c>
     </row>
     <row r="7">
@@ -576,20 +576,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>softball</t>
+          <t>income</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1051248357424441</v>
+        <v>73.78569999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.105170902716915</v>
+        <v>40.21194630872483</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>344.7510204081632</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>130.752427184466</v>
       </c>
     </row>
     <row r="8">
@@ -598,20 +598,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>volleyball</t>
+          <t>ed</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.09110819097678494</v>
+        <v>2.671</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09114811568799298</v>
+        <v>2.625503355704698</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2.877551020408163</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.786407766990291</v>
       </c>
     </row>
     <row r="9">
@@ -620,20 +620,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>swimming</t>
+          <t>employ</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1011826544021025</v>
+        <v>10.987</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1012269938650307</v>
+        <v>7.606711409395973</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>28.55102040816326</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>19.03398058252427</v>
       </c>
     </row>
     <row r="10">
@@ -642,20 +642,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cheerleading</t>
+          <t>retire</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0735873850197109</v>
+        <v>0.047</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0736196319018405</v>
+        <v>0.05369127516778523</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.03398058252427184</v>
       </c>
     </row>
     <row r="11">
@@ -664,20 +664,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>baseball</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.09877354358300482</v>
+        <v>0.517</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09881682734443471</v>
+        <v>0.5046979865771812</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.5388349514563107</v>
       </c>
     </row>
     <row r="12">
@@ -686,20 +686,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>tennis</t>
+          <t>reside</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0735873850197109</v>
+        <v>2.331</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0736196319018405</v>
+        <v>2.401342281879195</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1.918367346938775</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.174757281553398</v>
       </c>
     </row>
     <row r="13">
@@ -708,20 +708,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>sports</t>
+          <t>tollfree</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1116951379763469</v>
+        <v>0.474</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1117440841367222</v>
+        <v>0.4348993288590604</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.5776699029126213</v>
       </c>
     </row>
     <row r="14">
@@ -730,20 +730,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cute</t>
+          <t>equip</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2851511169513798</v>
+        <v>0.386</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2852760736196319</v>
+        <v>0.3986577181208054</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.3592233009708738</v>
       </c>
     </row>
     <row r="15">
@@ -752,20 +752,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>callcard</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2135348226018397</v>
+        <v>0.678</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1886503067484663</v>
+        <v>0.6255033557046979</v>
       </c>
       <c r="E15" t="n">
-        <v>114</v>
+        <v>0.8775510204081632</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.8203883495145631</v>
       </c>
     </row>
     <row r="16">
@@ -774,20 +774,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>sexy</t>
+          <t>wireless</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1106000876040298</v>
+        <v>0.296</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1106485539000876</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.3737864077669903</v>
       </c>
     </row>
     <row r="17">
@@ -796,20 +796,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>multline</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0900131406044678</v>
+        <v>0.475</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09005258545135846</v>
+        <v>0.4389261744966443</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.5922330097087378</v>
       </c>
     </row>
     <row r="18">
@@ -818,20 +818,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>kissed</t>
+          <t>voice</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.07687253613666228</v>
+        <v>0.304</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07690622261174408</v>
+        <v>0.2845637583892617</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.3398058252427185</v>
       </c>
     </row>
     <row r="19">
@@ -840,20 +840,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>dance</t>
+          <t>pager</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.3569864213753833</v>
+        <v>0.261</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.2322147651006711</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.3349514563106796</v>
       </c>
     </row>
     <row r="20">
@@ -862,20 +862,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>band</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2807709154621112</v>
+        <v>0.368</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2808939526730937</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.3932038834951456</v>
       </c>
     </row>
     <row r="21">
@@ -884,20 +884,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>marching</t>
+          <t>callid</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.04621112571178274</v>
+        <v>0.481</v>
       </c>
       <c r="D21" t="n">
-        <v>0.04623137598597721</v>
+        <v>0.4375838926174497</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.5728155339805825</v>
       </c>
     </row>
     <row r="22">
@@ -906,20 +906,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>music</t>
+          <t>callwait</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.7087166009636443</v>
+        <v>0.485</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7085889570552147</v>
+        <v>0.451006711409396</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0.5631067961165048</v>
       </c>
     </row>
     <row r="23">
@@ -928,20 +928,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>rock</t>
+          <t>forward</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.1968900569426194</v>
+        <v>0.493</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1967572304995618</v>
+        <v>0.4604026845637584</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.5533980582524272</v>
       </c>
     </row>
     <row r="24">
@@ -950,20 +950,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>god</t>
+          <t>confer</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.4851073149364871</v>
+        <v>0.502</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4680105170902717</v>
+        <v>0.4577181208053691</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.7755102040816326</v>
       </c>
       <c r="F24" t="n">
-        <v>79</v>
+        <v>0.5970873786407767</v>
       </c>
     </row>
     <row r="25">
@@ -972,20 +972,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>church</t>
+          <t>longmon</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.2391590013140605</v>
+        <v>11.7231</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2370727432077125</v>
+        <v>10.14859060402684</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>18.87857142857143</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>15.71529126213592</v>
       </c>
     </row>
     <row r="26">
@@ -994,20 +994,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jesus</t>
+          <t>tollmon</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.1112571178274201</v>
+        <v>13.274</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1113058720420684</v>
+        <v>11.41241610738255</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>21.54081632653061</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>18.04004854368932</v>
       </c>
     </row>
     <row r="27">
@@ -1016,20 +1016,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bible</t>
+          <t>equipmon</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.02737625930792817</v>
+        <v>14.2198</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02738825591586328</v>
+        <v>14.27906040268456</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>12.92244897959184</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>14.31407766990291</v>
       </c>
     </row>
     <row r="28">
@@ -1038,20 +1038,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>hair</t>
+          <t>cardmon</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.3232588699080158</v>
+        <v>13.781</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3231814198071867</v>
+        <v>12.37147651006711</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>19.42857142857143</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>17.53519417475728</v>
       </c>
     </row>
     <row r="29">
@@ -1060,20 +1060,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>dress</t>
+          <t>wiremon</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.1388523872098117</v>
+        <v>11.5839</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1389132340052585</v>
+        <v>9.89765100671141</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>16.63367346938776</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>16.48106796116505</v>
       </c>
     </row>
     <row r="30">
@@ -1082,20 +1082,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>blonde</t>
+          <t>ebill</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.05978975032851511</v>
+        <v>0.371</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0598159509202454</v>
+        <v>0.3677852348993289</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.4223300970873786</v>
       </c>
     </row>
     <row r="31">
@@ -1104,196 +1104,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>mall</t>
+          <t>custcat</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1776171703898379</v>
+        <v>2.487</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1776950043821209</v>
+        <v>2.389261744966443</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2.918367346938775</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>shopping</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0.3085851949189663</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.3087204206836109</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>clothes</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0.1180464301357863</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.1180981595092025</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>hollister</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0.04051686377573369</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.04053461875547765</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>abercrombie</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0.0319754708716601</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.03198948290972831</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>die</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0.1519929916776172</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.1520595968448729</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>death</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0.1162943495400788</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.1161262050832603</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>drunk</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0.1038107752956636</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.1038562664329536</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>drugs</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0.0501533070521244</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.05017528483786152</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
+        <v>2.737864077669903</v>
       </c>
     </row>
   </sheetData>

--- a/06 Machine Learning/Unsupervised/cluster_summary0.xlsx
+++ b/06 Machine Learning/Unsupervised/cluster_summary0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,20 +466,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.022</v>
+        <v>18.7595035472788</v>
       </c>
       <c r="D2" t="n">
-        <v>2.021476510067114</v>
+        <v>18.71363559306895</v>
       </c>
       <c r="E2" t="n">
-        <v>2.26530612244898</v>
+        <v>18.7706542593126</v>
       </c>
       <c r="F2" t="n">
-        <v>1.966019417475728</v>
+        <v>18.77669728698192</v>
       </c>
     </row>
     <row r="3">
@@ -488,20 +488,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tenure</t>
+          <t>friends</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35.526</v>
+        <v>26.12045554095488</v>
       </c>
       <c r="D3" t="n">
-        <v>31.50335570469799</v>
+        <v>28.36227224008574</v>
       </c>
       <c r="E3" t="n">
-        <v>50.22448979591837</v>
+        <v>24.71182795698925</v>
       </c>
       <c r="F3" t="n">
-        <v>46.57766990291262</v>
+        <v>32.71693121693121</v>
       </c>
     </row>
     <row r="4">
@@ -510,20 +510,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>basketball</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41.684</v>
+        <v>0.2113447218572054</v>
       </c>
       <c r="D4" t="n">
-        <v>38.88053691275168</v>
+        <v>0.2593783494105038</v>
       </c>
       <c r="E4" t="n">
-        <v>55.32653061224489</v>
+        <v>0.1803379416282642</v>
       </c>
       <c r="F4" t="n">
-        <v>48.57766990291262</v>
+        <v>0.3597883597883598</v>
       </c>
     </row>
     <row r="5">
@@ -532,20 +532,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>marital</t>
+          <t>football</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.495</v>
+        <v>0.2288655278142795</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4953020134228188</v>
+        <v>0.3193997856377278</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.18678955453149</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5097087378640777</v>
+        <v>0.3677248677248677</v>
       </c>
     </row>
     <row r="6">
@@ -554,20 +554,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>soccer</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11.551</v>
+        <v>0.1508979413053</v>
       </c>
       <c r="D6" t="n">
-        <v>9.916778523489933</v>
+        <v>0.217577706323687</v>
       </c>
       <c r="E6" t="n">
-        <v>18.16326530612245</v>
+        <v>0.128110599078341</v>
       </c>
       <c r="F6" t="n">
-        <v>15.88834951456311</v>
+        <v>0.1825396825396825</v>
       </c>
     </row>
     <row r="7">
@@ -576,20 +576,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>softball</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>73.78569999999999</v>
+        <v>0.1051248357424441</v>
       </c>
       <c r="D7" t="n">
-        <v>40.21194630872483</v>
+        <v>0.09217577706323687</v>
       </c>
       <c r="E7" t="n">
-        <v>344.7510204081632</v>
+        <v>0.1072196620583717</v>
       </c>
       <c r="F7" t="n">
-        <v>130.752427184466</v>
+        <v>0.119047619047619</v>
       </c>
     </row>
     <row r="8">
@@ -598,20 +598,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ed</t>
+          <t>volleyball</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.671</v>
+        <v>0.09110819097678494</v>
       </c>
       <c r="D8" t="n">
-        <v>2.625503355704698</v>
+        <v>0.1103965702036442</v>
       </c>
       <c r="E8" t="n">
-        <v>2.877551020408163</v>
+        <v>0.08264208909370199</v>
       </c>
       <c r="F8" t="n">
-        <v>2.786407766990291</v>
+        <v>0.1164021164021164</v>
       </c>
     </row>
     <row r="9">
@@ -620,20 +620,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>employ</t>
+          <t>swimming</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10.987</v>
+        <v>0.1011826544021025</v>
       </c>
       <c r="D9" t="n">
-        <v>7.606711409395973</v>
+        <v>0.1757770632368703</v>
       </c>
       <c r="E9" t="n">
-        <v>28.55102040816326</v>
+        <v>0.08294930875576037</v>
       </c>
       <c r="F9" t="n">
-        <v>19.03398058252427</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="10">
@@ -642,20 +642,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>retire</t>
+          <t>cheerleading</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.047</v>
+        <v>0.0735873850197109</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05369127516778523</v>
+        <v>0.09217577706323687</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.06789554531490015</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03398058252427184</v>
+        <v>0.07671957671957672</v>
       </c>
     </row>
     <row r="11">
@@ -664,20 +664,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>baseball</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.517</v>
+        <v>0.09877354358300482</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5046979865771812</v>
+        <v>0.112540192926045</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6122448979591837</v>
+        <v>0.08817204301075268</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5388349514563107</v>
+        <v>0.1560846560846561</v>
       </c>
     </row>
     <row r="12">
@@ -686,20 +686,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>reside</t>
+          <t>tennis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.331</v>
+        <v>0.0735873850197109</v>
       </c>
       <c r="D12" t="n">
-        <v>2.401342281879195</v>
+        <v>0.08038585209003216</v>
       </c>
       <c r="E12" t="n">
-        <v>1.918367346938775</v>
+        <v>0.06789554531490015</v>
       </c>
       <c r="F12" t="n">
-        <v>2.174757281553398</v>
+        <v>0.1058201058201058</v>
       </c>
     </row>
     <row r="13">
@@ -708,20 +708,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>tollfree</t>
+          <t>sports</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.474</v>
+        <v>0.1116951379763469</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4348993288590604</v>
+        <v>0.1661307609860664</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6326530612244898</v>
+        <v>0.08663594470046083</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5776699029126213</v>
+        <v>0.1931216931216931</v>
       </c>
     </row>
     <row r="14">
@@ -730,20 +730,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>equip</t>
+          <t>cute</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.386</v>
+        <v>0.2851511169513798</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3986577181208054</v>
+        <v>0.5294748124330118</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3061224489795918</v>
+        <v>0.2049155145929339</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3592233009708738</v>
+        <v>0.373015873015873</v>
       </c>
     </row>
     <row r="15">
@@ -752,20 +752,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>callcard</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.678</v>
+        <v>0.2135348226018397</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6255033557046979</v>
+        <v>0.5841371918542336</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.1019969278033794</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8203883495145631</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
     <row r="16">
@@ -774,20 +774,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>wireless</t>
+          <t>sexy</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.296</v>
+        <v>0.1106000876040298</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2684563758389262</v>
+        <v>0.1714898177920686</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3877551020408163</v>
+        <v>0.09062980030721966</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3737864077669903</v>
+        <v>0.1322751322751323</v>
       </c>
     </row>
     <row r="17">
@@ -796,20 +796,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>multline</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.475</v>
+        <v>0.0900131406044678</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4389261744966443</v>
+        <v>0.1361200428724544</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.07004608294930875</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5922330097087378</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="18">
@@ -818,20 +818,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>voice</t>
+          <t>kissed</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.304</v>
+        <v>0.07687253613666228</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2845637583892617</v>
+        <v>0.2111468381564845</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4489795918367347</v>
+        <v>0.03164362519201229</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3398058252427185</v>
+        <v>0.1349206349206349</v>
       </c>
     </row>
     <row r="19">
@@ -840,20 +840,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pager</t>
+          <t>dance</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.261</v>
+        <v>0.3569864213753833</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2322147651006711</v>
+        <v>0.8338692390139335</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3877551020408163</v>
+        <v>0.2116743471582181</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3349514563106796</v>
+        <v>0.4312169312169312</v>
       </c>
     </row>
     <row r="20">
@@ -862,20 +862,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>band</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.368</v>
+        <v>0.2807709154621112</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3691275167785235</v>
+        <v>0.7813504823151125</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2448979591836735</v>
+        <v>0.1403993855606759</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3932038834951456</v>
+        <v>0.253968253968254</v>
       </c>
     </row>
     <row r="21">
@@ -884,20 +884,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>callid</t>
+          <t>marching</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.481</v>
+        <v>0.04621112571178274</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4375838926174497</v>
+        <v>0.1254019292604502</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7551020408163265</v>
+        <v>0.02642089093701997</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5728155339805825</v>
+        <v>0.02116402116402116</v>
       </c>
     </row>
     <row r="22">
@@ -906,20 +906,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>callwait</t>
+          <t>music</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.485</v>
+        <v>0.7087166009636443</v>
       </c>
       <c r="D22" t="n">
-        <v>0.451006711409396</v>
+        <v>2.193997856377278</v>
       </c>
       <c r="E22" t="n">
-        <v>0.673469387755102</v>
+        <v>0.2814132104454685</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5631067961165048</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="23">
@@ -928,20 +928,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>forward</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.493</v>
+        <v>0.1968900569426194</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4604026845637584</v>
+        <v>0.3837084673097535</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7346938775510204</v>
+        <v>0.1345622119815668</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5533980582524272</v>
+        <v>0.2724867724867725</v>
       </c>
     </row>
     <row r="24">
@@ -950,20 +950,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>confer</t>
+          <t>god</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.502</v>
+        <v>0.4851073149364871</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4577181208053691</v>
+        <v>0.3419078242229368</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7755102040816326</v>
+        <v>0.1548387096774194</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5970873786407767</v>
+        <v>3.682539682539682</v>
       </c>
     </row>
     <row r="25">
@@ -972,20 +972,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>longmon</t>
+          <t>church</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>11.7231</v>
+        <v>0.2391590013140605</v>
       </c>
       <c r="D25" t="n">
-        <v>10.14859060402684</v>
+        <v>0.4255091103965702</v>
       </c>
       <c r="E25" t="n">
-        <v>18.87857142857143</v>
+        <v>0.1069124423963134</v>
       </c>
       <c r="F25" t="n">
-        <v>15.71529126213592</v>
+        <v>0.917989417989418</v>
       </c>
     </row>
     <row r="26">
@@ -994,20 +994,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tollmon</t>
+          <t>jesus</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>13.274</v>
+        <v>0.1112571178274201</v>
       </c>
       <c r="D26" t="n">
-        <v>11.41241610738255</v>
+        <v>0.1103965702036442</v>
       </c>
       <c r="E26" t="n">
-        <v>21.54081632653061</v>
+        <v>0.05898617511520737</v>
       </c>
       <c r="F26" t="n">
-        <v>18.04004854368932</v>
+        <v>0.5634920634920635</v>
       </c>
     </row>
     <row r="27">
@@ -1016,20 +1016,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>equipmon</t>
+          <t>bible</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>14.2198</v>
+        <v>0.02737625930792817</v>
       </c>
       <c r="D27" t="n">
-        <v>14.27906040268456</v>
+        <v>0.02893890675241157</v>
       </c>
       <c r="E27" t="n">
-        <v>12.92244897959184</v>
+        <v>0.0119815668202765</v>
       </c>
       <c r="F27" t="n">
-        <v>14.31407766990291</v>
+        <v>0.1560846560846561</v>
       </c>
     </row>
     <row r="28">
@@ -1038,20 +1038,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>cardmon</t>
+          <t>hair</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>13.781</v>
+        <v>0.3232588699080158</v>
       </c>
       <c r="D28" t="n">
-        <v>12.37147651006711</v>
+        <v>0.92497320471597</v>
       </c>
       <c r="E28" t="n">
-        <v>19.42857142857143</v>
+        <v>0.1431643625192012</v>
       </c>
       <c r="F28" t="n">
-        <v>17.53519417475728</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="29">
@@ -1060,20 +1060,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>wiremon</t>
+          <t>dress</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>11.5839</v>
+        <v>0.1388523872098117</v>
       </c>
       <c r="D29" t="n">
-        <v>9.89765100671141</v>
+        <v>0.2711682743837084</v>
       </c>
       <c r="E29" t="n">
-        <v>16.63367346938776</v>
+        <v>0.09923195084485407</v>
       </c>
       <c r="F29" t="n">
-        <v>16.48106796116505</v>
+        <v>0.1534391534391534</v>
       </c>
     </row>
     <row r="30">
@@ -1082,20 +1082,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ebill</t>
+          <t>blonde</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.371</v>
+        <v>0.05978975032851511</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3677852348993289</v>
+        <v>0.1264737406216506</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2040816326530612</v>
+        <v>0.03748079877112135</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4223300970873786</v>
+        <v>0.0873015873015873</v>
       </c>
     </row>
     <row r="31">
@@ -1104,20 +1104,196 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>custcat</t>
+          <t>mall</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2.487</v>
+        <v>0.1776171703898379</v>
       </c>
       <c r="D31" t="n">
-        <v>2.389261744966443</v>
+        <v>0.3322615219721329</v>
       </c>
       <c r="E31" t="n">
-        <v>2.918367346938775</v>
+        <v>0.133026113671275</v>
       </c>
       <c r="F31" t="n">
-        <v>2.737864077669903</v>
+        <v>0.1798941798941799</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>shopping</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.3085851949189663</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.4941050375133976</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.2473118279569892</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.3783068783068783</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>clothes</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1180464301357863</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.2572347266881029</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.07465437788018434</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>hollister</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.04051686377573369</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.06859592711682744</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0304147465437788</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0582010582010582</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>abercrombie</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0319754708716601</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.05359056806002144</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.02488479262672811</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.03968253968253968</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>die</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1519929916776172</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.2497320471596999</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.1075268817204301</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.2936507936507937</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.1162943495400788</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.1811361200428725</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.08417818740399385</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.2328042328042328</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>drunk</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1038107752956636</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.165058949624866</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.07926267281105991</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.164021164021164</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>drugs</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0501533070521244</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.1339764201500536</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.02488479262672811</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.06084656084656084</v>
       </c>
     </row>
   </sheetData>
